--- a/biology/Botanique/Bois_des_Hâtes/Bois_des_Hâtes.xlsx
+++ b/biology/Botanique/Bois_des_Hâtes/Bois_des_Hâtes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bois_des_H%C3%A2tes</t>
+          <t>Bois_des_Hâtes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bois des Hâtes est situé dans les communes de Saint-Avertin, Larçay et Chambray-lès-Tours.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bois_des_H%C3%A2tes</t>
+          <t>Bois_des_Hâtes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Transport</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur la D943, dans la direction de Loches, il faut tourner à gauche au rond-point qui achève le boulevard périphérique est. Le parking du bois des Hâtes est situé environ un kilomètre plus loin.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bois_des_H%C3%A2tes</t>
+          <t>Bois_des_Hâtes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,16 +557,87 @@
           <t>Animaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois des Hâtes possède trois zones clôturées où évoluent des animaux plus ou moins communs. À cela se rajoutent les animaux qui évoluent librement dans le bois, passant parfois du Bois des hâtes à la Forêt de Larcay. Il y a de plus, plusieurs points d'eau où se trouvent de nombreuses espèces.
-Mammifères
-Cerf (Plusieurs mâles et nombreuses femelles) : évoluent librement ; espèce à déterminer
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bois_des_Hâtes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bois_des_H%C3%A2tes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cerf (Plusieurs mâles et nombreuses femelles) : évoluent librement ; espèce à déterminer
 Cerf Sika (1 mâle) : seul dans un enclos
 Hydropote (3 adultes et 2 petits) : en enclos
-Daims (1 mâle au moins et nombreuses femelles) : en enclos
-Oiseaux
-Paon (nombreux mâles et femelles) : évoluent librement mais reviennent aux enclos
+Daims (1 mâle au moins et nombreuses femelles) : en enclos</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bois_des_Hâtes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bois_des_H%C3%A2tes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Paon (nombreux mâles et femelles) : évoluent librement mais reviennent aux enclos
 Nandou d'Amérique: en enclos
 Poules (Un coq et quelques poules) : en enclos
 Oie cygnoïde (une petite dizaine) : en enclos
@@ -561,23 +646,193 @@
 Pie bavarde
 Pigeon ramier
 Merle noir
-...
-Reptiles
-Vipère (au moins une espèce)
-Couleuvre
-Poissons
-Carpes
-Brochet
-Batraciens
-Grenouilles à identifier
-...
-Insectes
-Libellules (au moins 2 espèces)
+...</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bois_des_Hâtes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bois_des_H%C3%A2tes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Vipère (au moins une espèce)
+Couleuvre</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bois_des_Hâtes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bois_des_H%C3%A2tes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Poissons</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Carpes
+Brochet</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bois_des_Hâtes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bois_des_H%C3%A2tes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Batraciens</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Grenouilles à identifier
+...</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bois_des_Hâtes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bois_des_H%C3%A2tes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Libellules (au moins 2 espèces)
 Demoiselles (2 familles au moins : Coenagrionidae et Calopterygidae)
 Anaxes     (au moins 2 espèces)
-...
-Araignées
-...
+...</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bois_des_Hâtes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bois_des_H%C3%A2tes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Araignées</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">...
  Portail de l'Indre-et-Loire et de la Touraine   Portail du bois et de la forêt                    </t>
         </is>
       </c>
